--- a/booklets/booklets/database_size.xlsx
+++ b/booklets/booklets/database_size.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">we expect a starting beta with 100 users</t>
+    <t xml:space="preserve">we expect a starting test with 20 users</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Attachment</t>
   </si>
   <si>
-    <t xml:space="preserve">each user on avg upload 7 attachments per trip</t>
+    <t xml:space="preserve">each user on avg upload 5 attachments per trip</t>
   </si>
   <si>
     <t xml:space="preserve">fileName</t>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">fileSize</t>
   </si>
   <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
     <t xml:space="preserve">fileData</t>
   </si>
   <si>
@@ -142,7 +145,7 @@
     <t xml:space="preserve">Expense</t>
   </si>
   <si>
-    <t xml:space="preserve">each trip has on avg 15 expenses</t>
+    <t xml:space="preserve">each trip has on avg 6 expenses</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
@@ -166,7 +169,7 @@
     <t xml:space="preserve">Trip</t>
   </si>
   <si>
-    <t xml:space="preserve">each user creates an avg of 5 trips</t>
+    <t xml:space="preserve">each user creates an avg of 4 trips</t>
   </si>
   <si>
     <t xml:space="preserve">startDate</t>
@@ -208,7 +211,7 @@
     <t xml:space="preserve">Activity</t>
   </si>
   <si>
-    <t xml:space="preserve">each trip has an avg of 7 activities</t>
+    <t xml:space="preserve">each trip has an avg of 5 activities</t>
   </si>
   <si>
     <t xml:space="preserve">address</t>
@@ -238,7 +241,7 @@
     <t xml:space="preserve">Travel</t>
   </si>
   <si>
-    <t xml:space="preserve">each trip has an avg of 3 travells</t>
+    <t xml:space="preserve">each trip has an avg of 2 travels</t>
   </si>
   <si>
     <t xml:space="preserve">departure time</t>
@@ -300,6 +303,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -321,6 +325,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,9 +410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>556560</xdr:colOff>
+      <xdr:colOff>556200</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -421,8 +426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12519720" y="10489680"/>
-          <a:ext cx="6910920" cy="5037480"/>
+          <a:off x="12518280" y="10489680"/>
+          <a:ext cx="6921000" cy="5037120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,18 +449,18 @@
   </sheetPr>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K97" activeCellId="0" sqref="K97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="48.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="48.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,14 +495,14 @@
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">SUM(E3:E6)</f>
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="n">
         <f aca="false">IF(E2*F2=0, "", E2*F2)</f>
-        <v>15800</v>
+        <v>1760</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>9</v>
@@ -527,11 +532,11 @@
         <v>13</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="n">
-        <f aca="false">IF(C4="bigint", 8, IF(C4="varchar", 1, IF(C4="datetime", 8, 0)))*MAX(D4,1)</f>
-        <v>50</v>
+        <f aca="false">IF(C4="bigint", 8, IF(C4="varchar", 1, IF(C4="datetime", 8,IF(C4="int",4, 0))))*MAX(D4,1)</f>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">IF(E4*F4=0, "", E4*F4)</f>
@@ -546,11 +551,11 @@
         <v>13</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="n">
-        <f aca="false">IF(C5="bigint", 8, IF(C5="varchar", 1, IF(C5="datetime", 8, 0)))*MAX(D5,1)</f>
-        <v>50</v>
+        <f aca="false">IF(C5="bigint", 8, IF(C5="varchar", 1, IF(C5="datetime", 8,IF(C5="int",4, 0))))*MAX(D5,1)</f>
+        <v>20</v>
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">IF(E5*F5=0, "", E5*F5)</f>
@@ -565,11 +570,11 @@
         <v>13</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="n">
-        <f aca="false">IF(C6="bigint", 8, IF(C6="varchar", 1, IF(C6="datetime", 8, 0)))*MAX(D6,1)</f>
-        <v>50</v>
+        <f aca="false">IF(C6="bigint", 8, IF(C6="varchar", 1, IF(C6="datetime", 8,IF(C6="int",4, 0))))*MAX(D6,1)</f>
+        <v>40</v>
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">IF(E6*F6=0, "", E6*F6)</f>
@@ -584,7 +589,7 @@
         <f aca="false">SUM(E8:E12)</f>
         <v>532</v>
       </c>
-      <c r="G7" s="0" t="str">
+      <c r="G7" s="2" t="str">
         <f aca="false">IF(E7*F7=0, "", E7*F7)</f>
         <v/>
       </c>
@@ -597,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="0" t="n">
-        <f aca="false">IF(C8="bigint", 8, IF(C8="varchar", 1, IF(C8="datetime", 8, 0)))*MAX(D8,1)</f>
+        <f aca="false">IF(C8="bigint", 8, IF(C8="varchar", 1, IF(C8="datetime", 8,IF(C8="int",4, 0))))*MAX(D8,1)</f>
         <v>8</v>
       </c>
       <c r="G8" s="0" t="str">
@@ -616,7 +621,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="0" t="n">
-        <f aca="false">IF(C9="bigint", 8, IF(C9="varchar", 1, IF(C9="datetime", 8, 0)))*MAX(D9,1)</f>
+        <f aca="false">IF(C9="bigint", 8, IF(C9="varchar", 1, IF(C9="datetime", 8,IF(C9="int",4, 0))))*MAX(D9,1)</f>
         <v>500</v>
       </c>
       <c r="G9" s="0" t="str">
@@ -632,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="0" t="n">
-        <f aca="false">IF(C10="bigint", 8, IF(C10="varchar", 1, IF(C10="datetime", 8, 0)))*MAX(D10,1)</f>
+        <f aca="false">IF(C10="bigint", 8, IF(C10="varchar", 1, IF(C10="datetime", 8,IF(C10="int",4, 0))))*MAX(D10,1)</f>
         <v>8</v>
       </c>
       <c r="G10" s="0" t="str">
@@ -648,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="0" t="n">
-        <f aca="false">IF(C11="bigint", 8, IF(C11="varchar", 1, IF(C11="datetime", 8, 0)))*MAX(D11,1)</f>
+        <f aca="false">IF(C11="bigint", 8, IF(C11="varchar", 1, IF(C11="datetime", 8,IF(C11="int",4, 0))))*MAX(D11,1)</f>
         <v>8</v>
       </c>
       <c r="G11" s="0" t="str">
@@ -664,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="0" t="n">
-        <f aca="false">IF(C12="bigint", 8, IF(C12="varchar", 1, IF(C12="datetime", 8, 0)))*MAX(D12,1)</f>
+        <f aca="false">IF(C12="bigint", 8, IF(C12="varchar", 1, IF(C12="datetime", 8,IF(C12="int",4, 0))))*MAX(D12,1)</f>
         <v>8</v>
       </c>
       <c r="G12" s="0" t="str">
@@ -677,15 +682,15 @@
         <v>22</v>
       </c>
       <c r="E13" s="0" t="n">
-        <f aca="false">SUM(E14:E23)</f>
-        <v>349</v>
+        <f aca="false">SUM(E14:E17)</f>
+        <v>62</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <f aca="false">IF(E13*F13=0, "", E13*F13)</f>
-        <v>4886000</v>
+        <v>99200</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>23</v>
@@ -699,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="0" t="n">
-        <f aca="false">IF(C14="bigint", 8, IF(C14="varchar", 1, IF(C14="datetime", 8,IF(C14="bytea", 1, 0)))*MAX(D14,1))</f>
+        <f aca="false">IF(C14="bigint", 8, IF(C14="varchar", 1, IF(C14="datetime", 8,IF(C14="int",4, 0))))*MAX(D14,1)</f>
         <v>8</v>
       </c>
       <c r="G14" s="0" t="str">
@@ -715,11 +720,11 @@
         <v>13</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E15" s="0" t="n">
-        <f aca="false">IF(C15="bigint", 8, IF(C15="varchar", 1, IF(C15="datetime", 8,IF(C15="bytea", 1, 0)))*MAX(D15,1))</f>
-        <v>50</v>
+        <f aca="false">IF(C15="bigint", 8, IF(C15="varchar", 1, IF(C15="datetime", 8,IF(C15="int",4, 0))))*MAX(D15,1)</f>
+        <v>30</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">IF(E15*F15=0, "", E15*F15)</f>
@@ -734,11 +739,11 @@
         <v>13</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E16" s="0" t="n">
-        <f aca="false">IF(C16="bigint", 8, IF(C16="varchar", 1, IF(C16="datetime", 8,IF(C16="bytea", 1, 0)))*MAX(D16,1))</f>
-        <v>50</v>
+        <f aca="false">IF(C16="bigint", 8, IF(C16="varchar", 1, IF(C16="datetime", 8,IF(C16="int",4, 0))))*MAX(D16,1)</f>
+        <v>20</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">IF(E16*F16=0, "", E16*F16)</f>
@@ -750,11 +755,11 @@
         <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E17" s="0" t="n">
-        <f aca="false">IF(C17="bigint", 8, IF(C17="varchar", 1, IF(C17="datetime", 8,IF(C17="bytea", 1, 0)))*MAX(D17,1))</f>
-        <v>8</v>
+        <f aca="false">IF(C17="bigint", 8, IF(C17="varchar", 1, IF(C17="datetime", 8,IF(C17="int",4, 0))))*MAX(D17,1)</f>
+        <v>4</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">IF(E17*F17=0, "", E17*F17)</f>
@@ -763,14 +768,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="0" t="n">
-        <f aca="false">IF(C18="bigint", 8, IF(C18="varchar", 1, IF(C18="datetime", 8,IF(C18="bytea", 1, 0)))*MAX(D18,1))</f>
-        <v>1</v>
+        <f aca="false">SUM(E19:E23)</f>
+        <v>182</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">IF(E18*F18=0, "", E18*F18)</f>
@@ -779,13 +784,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="0" t="n">
-        <f aca="false">IF(C19="bigint", 8, IF(C19="varchar", 1, IF(C19="datetime", 8,IF(C19="bytea", 1, 0)))*MAX(D19,1))</f>
+        <f aca="false">IF(C19="bigint", 8, IF(C19="varchar", 1, IF(C19="datetime", 8,IF(C19="int",4, 0))))*MAX(D19,1)</f>
         <v>8</v>
       </c>
       <c r="G19" s="0" t="str">
@@ -795,13 +800,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="0" t="n">
-        <f aca="false">IF(C20="bigint", 8, IF(C20="varchar", 1, IF(C20="datetime", 8,IF(C20="bytea", 1, 0)))*MAX(D20,1))</f>
+        <f aca="false">IF(C20="bigint", 8, IF(C20="varchar", 1, IF(C20="datetime", 8,IF(C20="int",4, 0))))*MAX(D20,1)</f>
         <v>8</v>
       </c>
       <c r="G20" s="0" t="str">
@@ -811,17 +816,17 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E21" s="0" t="n">
-        <f aca="false">IF(C21="bigint", 8, IF(C21="varchar", 1, IF(C21="datetime", 8,IF(C21="bytea", 1, 0)))*MAX(D21,1))</f>
-        <v>200</v>
+        <f aca="false">IF(C21="bigint", 8, IF(C21="varchar", 1, IF(C21="datetime", 8,IF(C21="int",4, 0))))*MAX(D21,1)</f>
+        <v>150</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">IF(E21*F21=0, "", E21*F21)</f>
@@ -830,13 +835,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="0" t="n">
-        <f aca="false">IF(C22="bigint", 8, IF(C22="varchar", 1, IF(C22="datetime", 8,IF(C22="bytea", 1, 0)))*MAX(D22,1))</f>
+        <f aca="false">IF(C22="bigint", 8, IF(C22="varchar", 1, IF(C22="datetime", 8,IF(C22="int",4, 0))))*MAX(D22,1)</f>
         <v>8</v>
       </c>
       <c r="G22" s="0" t="str">
@@ -846,13 +851,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="0" t="n">
-        <f aca="false">IF(C23="bigint", 8, IF(C23="varchar", 1, IF(C23="datetime", 8,IF(C23="bytea", 1, 0)))*MAX(D23,1))</f>
+        <f aca="false">IF(C23="bigint", 8, IF(C23="varchar", 1, IF(C23="datetime", 8,IF(C23="int",4, 0))))*MAX(D23,1)</f>
         <v>8</v>
       </c>
       <c r="G23" s="0" t="str">
@@ -862,21 +867,21 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="0" t="n">
         <f aca="false">SUM(E25:E26)</f>
         <v>16</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G24" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <f aca="false">IF(E24*F24=0, "", E24*F24)</f>
-        <v>32000</v>
+        <v>5120</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="0" t="n">
-        <f aca="false">IF(C25="bigint", 8, IF(C25="varchar", 1, IF(C25="datetime", 8,IF(C25="bytea", 1, 0)))*MAX(D25,1))</f>
+        <f aca="false">IF(C25="bigint", 8, IF(C25="varchar", 1, IF(C25="datetime", 8,IF(C25="int",4, 0))))*MAX(D25,1)</f>
         <v>8</v>
       </c>
       <c r="G25" s="0" t="str">
@@ -897,13 +902,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="0" t="n">
-        <f aca="false">IF(C26="bigint", 8, IF(C26="varchar", 1, IF(C26="datetime", 8,IF(C26="bytea", 1, 0)))*MAX(D26,1))</f>
+        <f aca="false">IF(C26="bigint", 8, IF(C26="varchar", 1, IF(C26="datetime", 8,IF(C26="int",4, 0))))*MAX(D26,1)</f>
         <v>8</v>
       </c>
       <c r="G26" s="0" t="str">
@@ -913,21 +918,21 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">SUM(E28:E29)</f>
         <v>16</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="n">
         <f aca="false">IF(E27*F27=0, "", E27*F27)</f>
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="0" t="n">
-        <f aca="false">IF(C28="bigint", 8, IF(C28="varchar", 1, IF(C28="datetime", 8,IF(C28="bytea", 1, 0)))*MAX(D28,1))</f>
+        <f aca="false">IF(C28="bigint", 8, IF(C28="varchar", 1, IF(C28="datetime", 8,IF(C28="int",4, 0))))*MAX(D28,1)</f>
         <v>8</v>
       </c>
       <c r="G28" s="0" t="str">
@@ -948,13 +953,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="0" t="n">
-        <f aca="false">IF(C29="bigint", 8, IF(C29="varchar", 1, IF(C29="datetime", 8,IF(C29="bytea", 1, 0)))*MAX(D29,1))</f>
+        <f aca="false">IF(C29="bigint", 8, IF(C29="varchar", 1, IF(C29="datetime", 8,IF(C29="int",4, 0))))*MAX(D29,1)</f>
         <v>8</v>
       </c>
       <c r="G29" s="0" t="str">
@@ -964,22 +969,21 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="0" t="n">
         <f aca="false">SUM(E31:E35)</f>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F30" s="0" t="n">
-        <f aca="false">15*500</f>
-        <v>7500</v>
-      </c>
-      <c r="G30" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="G30" s="2" t="n">
         <f aca="false">IF(E30*F30=0, "", E30*F30)</f>
-        <v>615000</v>
+        <v>29760</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="0" t="n">
-        <f aca="false">IF(C31="bigint", 8, IF(C31="varchar", 1, IF(C31="datetime", 8,IF(C31="bytea", 1, 0)))*MAX(D31,1))</f>
+        <f aca="false">IF(C31="bigint", 8, IF(C31="varchar", 1, IF(C31="datetime", 8,IF(C31="int",4, 0))))*MAX(D31,1)</f>
         <v>8</v>
       </c>
       <c r="G31" s="0" t="str">
@@ -1000,17 +1004,17 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E32" s="0" t="n">
-        <f aca="false">IF(C32="bigint", 8, IF(C32="varchar", 1, IF(C32="datetime", 8,IF(C32="bytea", 1, 0)))*MAX(D32,1))</f>
-        <v>50</v>
+        <f aca="false">IF(C32="bigint", 8, IF(C32="varchar", 1, IF(C32="datetime", 8,IF(C32="int",4, 0))))*MAX(D32,1)</f>
+        <v>30</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">IF(E32*F32=0, "", E32*F32)</f>
@@ -1025,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="0" t="n">
-        <f aca="false">IF(C33="bigint", 8, IF(C33="varchar", 1, IF(C33="datetime", 8,IF(C33="bytea", 1, 0)))*MAX(D33,1))</f>
+        <f aca="false">IF(C33="bigint", 8, IF(C33="varchar", 1, IF(C33="datetime", 8,IF(C33="int",4, 0))))*MAX(D33,1)</f>
         <v>8</v>
       </c>
       <c r="G33" s="0" t="str">
@@ -1035,13 +1039,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="0" t="n">
-        <f aca="false">IF(C34="bigint", 8, IF(C34="varchar", 1, IF(C34="datetime", 8,IF(C34="bytea", 1, 0)))*MAX(D34,1))</f>
+        <f aca="false">IF(C34="bigint", 8, IF(C34="varchar", 1, IF(C34="datetime", 8,IF(C34="int",4, 0))))*MAX(D34,1)</f>
         <v>8</v>
       </c>
       <c r="G34" s="0" t="str">
@@ -1057,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="0" t="n">
-        <f aca="false">IF(C35="bigint", 8, IF(C35="varchar", 1, IF(C35="datetime", 8,IF(C35="bytea", 1, 0)))*MAX(D35,1))</f>
+        <f aca="false">IF(C35="bigint", 8, IF(C35="varchar", 1, IF(C35="datetime", 8,IF(C35="int",4, 0))))*MAX(D35,1)</f>
         <v>8</v>
       </c>
       <c r="G35" s="0" t="str">
@@ -1067,22 +1071,22 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="0" t="n">
         <f aca="false">SUM(E37:E40)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" s="0" t="n">
-        <f aca="false">7500*4</f>
-        <v>30000</v>
-      </c>
-      <c r="G36" s="0" t="n">
+        <f aca="false">480*4</f>
+        <v>1920</v>
+      </c>
+      <c r="G36" s="2" t="n">
         <f aca="false">IF(E36*F36=0, "", E36*F36)</f>
-        <v>960000</v>
+        <v>53760</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="0" t="n">
-        <f aca="false">IF(C37="bigint", 8, IF(C37="varchar", 1, IF(C37="datetime", 8,IF(C37="bytea", 1, 0)))*MAX(D37,1))</f>
+        <f aca="false">IF(C37="bigint", 8, IF(C37="varchar", 1, IF(C37="datetime", 8,IF(C37="int",4, 0))))*MAX(D37,1)</f>
         <v>8</v>
       </c>
       <c r="G37" s="0" t="str">
@@ -1103,13 +1107,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="0" t="n">
-        <f aca="false">IF(C38="bigint", 8, IF(C38="varchar", 1, IF(C38="datetime", 8,IF(C38="bytea", 1, 0)))*MAX(D38,1))</f>
+        <f aca="false">IF(C38="bigint", 8, IF(C38="varchar", 1, IF(C38="datetime", 8,IF(C38="int",4, 0))))*MAX(D38,1)</f>
         <v>8</v>
       </c>
       <c r="G38" s="0" t="str">
@@ -1119,14 +1123,14 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E39" s="0" t="n">
-        <f aca="false">IF(C39="bigint", 8, IF(C39="varchar", 1, IF(C39="datetime", 8,IF(C39="bytea", 1, 0)))*MAX(D39,1))</f>
-        <v>8</v>
+        <f aca="false">IF(C39="bigint", 8, IF(C39="varchar", 1, IF(C39="datetime", 8,IF(C39="int",4, 0))))*MAX(D39,1)</f>
+        <v>4</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">IF(E39*F39=0, "", E39*F39)</f>
@@ -1135,13 +1139,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="0" t="n">
-        <f aca="false">IF(C40="bigint", 8, IF(C40="varchar", 1, IF(C40="datetime", 8,IF(C40="bytea", 1, 0)))*MAX(D40,1))</f>
+        <f aca="false">IF(C40="bigint", 8, IF(C40="varchar", 1, IF(C40="datetime", 8,IF(C40="int",4, 0))))*MAX(D40,1)</f>
         <v>8</v>
       </c>
       <c r="G40" s="0" t="str">
@@ -1151,21 +1155,21 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="0" t="n">
         <f aca="false">SUM(E42:E47)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G41" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G41" s="2" t="n">
         <f aca="false">IF(E41*F41=0, "", E41*F41)</f>
-        <v>45000</v>
+        <v>4800</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="0" t="n">
-        <f aca="false">IF(C42="bigint", 8, IF(C42="varchar", 1, IF(C42="datetime", 8,IF(C42="bytea", 1, 0)))*MAX(D42,1))</f>
+        <f aca="false">IF(C42="bigint", 8, IF(C42="varchar", 1, IF(C42="datetime", 8,IF(C42="int",4, 0))))*MAX(D42,1)</f>
         <v>8</v>
       </c>
       <c r="G42" s="0" t="str">
@@ -1186,17 +1190,17 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E43" s="0" t="n">
-        <f aca="false">IF(C43="bigint", 8, IF(C43="varchar", 1, IF(C43="datetime", 8,IF(C43="bytea", 1, 0)))*MAX(D43,1))</f>
-        <v>50</v>
+        <f aca="false">IF(C43="bigint", 8, IF(C43="varchar", 1, IF(C43="datetime", 8,IF(C43="int",4, 0))))*MAX(D43,1)</f>
+        <v>20</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">IF(E43*F43=0, "", E43*F43)</f>
@@ -1205,13 +1209,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="0" t="n">
-        <f aca="false">IF(C44="bigint", 8, IF(C44="varchar", 1, IF(C44="datetime", 8,IF(C44="bytea", 1, 0)))*MAX(D44,1))</f>
+        <f aca="false">IF(C44="bigint", 8, IF(C44="varchar", 1, IF(C44="datetime", 8,IF(C44="int",4, 0))))*MAX(D44,1)</f>
         <v>8</v>
       </c>
       <c r="G44" s="0" t="str">
@@ -1221,13 +1225,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="0" t="n">
-        <f aca="false">IF(C45="bigint", 8, IF(C45="varchar", 1, IF(C45="datetime", 8,IF(C45="bytea", 1, 0)))*MAX(D45,1))</f>
+        <f aca="false">IF(C45="bigint", 8, IF(C45="varchar", 1, IF(C45="datetime", 8,IF(C45="int",4, 0))))*MAX(D45,1)</f>
         <v>8</v>
       </c>
       <c r="G45" s="0" t="str">
@@ -1237,13 +1241,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="0" t="n">
-        <f aca="false">IF(C46="bigint", 8, IF(C46="varchar", 1, IF(C46="datetime", 8,IF(C46="bytea", 1, 0)))*MAX(D46,1))</f>
+        <f aca="false">IF(C46="bigint", 8, IF(C46="varchar", 1, IF(C46="datetime", 8,IF(C46="int",4, 0))))*MAX(D46,1)</f>
         <v>8</v>
       </c>
       <c r="G46" s="0" t="str">
@@ -1253,13 +1257,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="0" t="n">
-        <f aca="false">IF(C47="bigint", 8, IF(C47="varchar", 1, IF(C47="datetime", 8,IF(C47="bytea", 1, 0)))*MAX(D47,1))</f>
+        <f aca="false">IF(C47="bigint", 8, IF(C47="varchar", 1, IF(C47="datetime", 8,IF(C47="int",4, 0))))*MAX(D47,1)</f>
         <v>8</v>
       </c>
       <c r="G47" s="0" t="str">
@@ -1269,32 +1273,32 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E48" s="0" t="n">
         <f aca="false">SUM(E49:E50)</f>
         <v>16</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G48" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="G48" s="2" t="n">
         <f aca="false">IF(E48*F48=0, "", E48*F48)</f>
-        <v>16000</v>
+        <v>2560</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="0" t="n">
-        <f aca="false">IF(C49="bigint", 8, IF(C49="varchar", 1, IF(C49="datetime", 8,IF(C49="bytea", 1, 0)))*MAX(D49,1))</f>
+        <f aca="false">IF(C49="bigint", 8, IF(C49="varchar", 1, IF(C49="datetime", 8,IF(C49="int",4, 0))))*MAX(D49,1)</f>
         <v>8</v>
       </c>
       <c r="G49" s="0" t="str">
@@ -1304,13 +1308,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="0" t="n">
-        <f aca="false">IF(C50="bigint", 8, IF(C50="varchar", 1, IF(C50="datetime", 8,IF(C50="bytea", 1, 0)))*MAX(D50,1))</f>
+        <f aca="false">IF(C50="bigint", 8, IF(C50="varchar", 1, IF(C50="datetime", 8,IF(C50="int",4, 0))))*MAX(D50,1)</f>
         <v>8</v>
       </c>
       <c r="G50" s="0" t="str">
@@ -1320,18 +1324,18 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E51" s="0" t="n">
         <f aca="false">SUM(E52:E57)</f>
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G51" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" s="2" t="n">
         <f aca="false">IF(E51*F51=0, "", E51*F51)</f>
-        <v>11200000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="E52" s="0" t="n">
-        <f aca="false">IF(C52="bigint", 8, IF(C52="varchar", 1, IF(C52="datetime", 8,IF(C52="bytea", 1, 0)))*MAX(D52,1))</f>
+        <f aca="false">IF(C52="bigint", 8, IF(C52="varchar", 1, IF(C52="datetime", 8,IF(C52="int",4, 0))))*MAX(D52,1)</f>
         <v>8</v>
       </c>
       <c r="G52" s="0" t="str">
@@ -1352,17 +1356,17 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E53" s="0" t="n">
-        <f aca="false">IF(C53="bigint", 8, IF(C53="varchar", 1, IF(C53="datetime", 8,IF(C53="bytea", 1, 0)))*MAX(D53,1))</f>
-        <v>50</v>
+        <f aca="false">IF(C53="bigint", 8, IF(C53="varchar", 1, IF(C53="datetime", 8,IF(C53="int",4, 0))))*MAX(D53,1)</f>
+        <v>30</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">IF(E53*F53=0, "", E53*F53)</f>
@@ -1371,17 +1375,17 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E54" s="0" t="n">
-        <f aca="false">IF(C54="bigint", 8, IF(C54="varchar", 1, IF(C54="datetime", 8,IF(C54="bytea", 1, 0)))*MAX(D54,1))</f>
-        <v>50</v>
+        <f aca="false">IF(C54="bigint", 8, IF(C54="varchar", 1, IF(C54="datetime", 8,IF(C54="int",4, 0))))*MAX(D54,1)</f>
+        <v>30</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">IF(E54*F54=0, "", E54*F54)</f>
@@ -1390,14 +1394,14 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E55" s="0" t="n">
-        <f aca="false">IF(C55="bigint", 8, IF(C55="varchar", 1, IF(C55="datetime", 8,IF(C55="bytea", 1, 0)))*MAX(D55,1))</f>
-        <v>8</v>
+        <f aca="false">IF(C55="bigint", 8, IF(C55="varchar", 1, IF(C55="datetime", 8,IF(C55="int",4, 0))))*MAX(D55,1)</f>
+        <v>4</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">IF(E55*F55=0, "", E55*F55)</f>
@@ -1406,14 +1410,14 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E56" s="0" t="n">
-        <f aca="false">IF(C56="bigint", 8, IF(C56="varchar", 1, IF(C56="datetime", 8,IF(C56="bytea", 1, 0)))*MAX(D56,1))</f>
-        <v>8</v>
+        <f aca="false">IF(C56="bigint", 8, IF(C56="varchar", 1, IF(C56="datetime", 8,IF(C56="int",4, 0))))*MAX(D56,1)</f>
+        <v>4</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">IF(E56*F56=0, "", E56*F56)</f>
@@ -1422,7 +1426,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>13</v>
@@ -1431,7 +1435,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="0" t="n">
-        <f aca="false">IF(C57="bigint", 8, IF(C57="varchar", 1, IF(C57="datetime", 8,IF(C57="bytea", 1, 0)))*MAX(D57,1))</f>
+        <f aca="false">IF(C57="bigint", 8, IF(C57="varchar", 1, IF(C57="datetime", 8,IF(C57="int",4, 0))))*MAX(D57,1)</f>
         <v>100</v>
       </c>
       <c r="G57" s="0" t="str">
@@ -1441,21 +1445,21 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E58" s="0" t="n">
         <f aca="false">SUM(E59:E67)</f>
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G58" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" s="2" t="n">
         <f aca="false">IF(E58*F58=0, "", E58*F58)</f>
-        <v>1568000</v>
+        <v>175200</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="0" t="n">
-        <f aca="false">IF(C59="bigint", 8, IF(C59="varchar", 1, IF(C59="datetime", 8,IF(C59="bytea", 1, 0)))*MAX(D59,1))</f>
+        <f aca="false">IF(C59="bigint", 8, IF(C59="varchar", 1, IF(C59="datetime", 8,IF(C59="int",4, 0))))*MAX(D59,1)</f>
         <v>8</v>
       </c>
       <c r="G59" s="0" t="str">
@@ -1482,7 +1486,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="0" t="n">
-        <f aca="false">IF(C60="bigint", 8, IF(C60="varchar", 1, IF(C60="datetime", 8,IF(C60="bytea", 1, 0)))*MAX(D60,1))</f>
+        <f aca="false">IF(C60="bigint", 8, IF(C60="varchar", 1, IF(C60="datetime", 8,IF(C60="int",4, 0))))*MAX(D60,1)</f>
         <v>8</v>
       </c>
       <c r="G60" s="0" t="str">
@@ -1492,7 +1496,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>13</v>
@@ -1501,7 +1505,7 @@
         <v>150</v>
       </c>
       <c r="E61" s="0" t="n">
-        <f aca="false">IF(C61="bigint", 8, IF(C61="varchar", 1, IF(C61="datetime", 8,IF(C61="bytea", 1, 0)))*MAX(D61,1))</f>
+        <f aca="false">IF(C61="bigint", 8, IF(C61="varchar", 1, IF(C61="datetime", 8,IF(C61="int",4, 0))))*MAX(D61,1)</f>
         <v>150</v>
       </c>
       <c r="G61" s="0" t="str">
@@ -1511,13 +1515,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="0" t="n">
-        <f aca="false">IF(C62="bigint", 8, IF(C62="varchar", 1, IF(C62="datetime", 8,IF(C62="bytea", 1, 0)))*MAX(D62,1))</f>
+        <f aca="false">IF(C62="bigint", 8, IF(C62="varchar", 1, IF(C62="datetime", 8,IF(C62="int",4, 0))))*MAX(D62,1)</f>
         <v>8</v>
       </c>
       <c r="G62" s="0" t="str">
@@ -1527,13 +1531,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="0" t="n">
-        <f aca="false">IF(C63="bigint", 8, IF(C63="varchar", 1, IF(C63="datetime", 8,IF(C63="bytea", 1, 0)))*MAX(D63,1))</f>
+        <f aca="false">IF(C63="bigint", 8, IF(C63="varchar", 1, IF(C63="datetime", 8,IF(C63="int",4, 0))))*MAX(D63,1)</f>
         <v>8</v>
       </c>
       <c r="G63" s="0" t="str">
@@ -1543,17 +1547,17 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E64" s="0" t="n">
-        <f aca="false">IF(C64="bigint", 8, IF(C64="varchar", 1, IF(C64="datetime", 8,IF(C64="bytea", 1, 0)))*MAX(D64,1))</f>
-        <v>50</v>
+        <f aca="false">IF(C64="bigint", 8, IF(C64="varchar", 1, IF(C64="datetime", 8,IF(C64="int",4, 0))))*MAX(D64,1)</f>
+        <v>40</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(E64*F64=0, "", E64*F64)</f>
@@ -1562,13 +1566,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E65" s="0" t="n">
-        <f aca="false">IF(C65="bigint", 8, IF(C65="varchar", 1, IF(C65="datetime", 8,IF(C65="bytea", 1, 0)))*MAX(D65,1))</f>
+        <f aca="false">IF(C65="bigint", 8, IF(C65="varchar", 1, IF(C65="datetime", 8,IF(C65="int",4, 0))))*MAX(D65,1)</f>
         <v>8</v>
       </c>
       <c r="G65" s="0" t="str">
@@ -1578,13 +1582,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E66" s="0" t="n">
-        <f aca="false">IF(C66="bigint", 8, IF(C66="varchar", 1, IF(C66="datetime", 8,IF(C66="bytea", 1, 0)))*MAX(D66,1))</f>
+        <f aca="false">IF(C66="bigint", 8, IF(C66="varchar", 1, IF(C66="datetime", 8,IF(C66="int",4, 0))))*MAX(D66,1)</f>
         <v>8</v>
       </c>
       <c r="G66" s="0" t="str">
@@ -1594,7 +1598,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>13</v>
@@ -1603,7 +1607,7 @@
         <v>200</v>
       </c>
       <c r="E67" s="0" t="n">
-        <f aca="false">IF(C67="bigint", 8, IF(C67="varchar", 1, IF(C67="datetime", 8,IF(C67="bytea", 1, 0)))*MAX(D67,1))</f>
+        <f aca="false">IF(C67="bigint", 8, IF(C67="varchar", 1, IF(C67="datetime", 8,IF(C67="int",4, 0))))*MAX(D67,1)</f>
         <v>200</v>
       </c>
       <c r="G67" s="0" t="str">
@@ -1613,21 +1617,21 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E68" s="0" t="n">
         <f aca="false">SUM(E69:E74)</f>
         <v>190</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G68" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="G68" s="2" t="n">
         <f aca="false">IF(E68*F68=0, "", E68*F68)</f>
-        <v>285000</v>
+        <v>45600</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="0" t="n">
-        <f aca="false">IF(C69="bigint", 8, IF(C69="varchar", 1, IF(C69="datetime", 8,IF(C69="bytea", 1, 0)))*MAX(D69,1))</f>
+        <f aca="false">IF(C69="bigint", 8, IF(C69="varchar", 1, IF(C69="datetime", 8,IF(C69="int",4, 0))))*MAX(D69,1)</f>
         <v>8</v>
       </c>
       <c r="G69" s="0" t="str">
@@ -1654,7 +1658,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="0" t="n">
-        <f aca="false">IF(C70="bigint", 8, IF(C70="varchar", 1, IF(C70="datetime", 8,IF(C70="bytea", 1, 0)))*MAX(D70,1))</f>
+        <f aca="false">IF(C70="bigint", 8, IF(C70="varchar", 1, IF(C70="datetime", 8,IF(C70="int",4, 0))))*MAX(D70,1)</f>
         <v>8</v>
       </c>
       <c r="G70" s="0" t="str">
@@ -1664,7 +1668,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>13</v>
@@ -1673,7 +1677,7 @@
         <v>150</v>
       </c>
       <c r="E71" s="0" t="n">
-        <f aca="false">IF(C71="bigint", 8, IF(C71="varchar", 1, IF(C71="datetime", 8,IF(C71="bytea", 1, 0)))*MAX(D71,1))</f>
+        <f aca="false">IF(C71="bigint", 8, IF(C71="varchar", 1, IF(C71="datetime", 8,IF(C71="int",4, 0))))*MAX(D71,1)</f>
         <v>150</v>
       </c>
       <c r="G71" s="0" t="str">
@@ -1683,13 +1687,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="0" t="n">
-        <f aca="false">IF(C72="bigint", 8, IF(C72="varchar", 1, IF(C72="datetime", 8,IF(C72="bytea", 1, 0)))*MAX(D72,1))</f>
+        <f aca="false">IF(C72="bigint", 8, IF(C72="varchar", 1, IF(C72="datetime", 8,IF(C72="int",4, 0))))*MAX(D72,1)</f>
         <v>8</v>
       </c>
       <c r="G72" s="0" t="str">
@@ -1699,13 +1703,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="0" t="n">
-        <f aca="false">IF(C73="bigint", 8, IF(C73="varchar", 1, IF(C73="datetime", 8,IF(C73="bytea", 1, 0)))*MAX(D73,1))</f>
+        <f aca="false">IF(C73="bigint", 8, IF(C73="varchar", 1, IF(C73="datetime", 8,IF(C73="int",4, 0))))*MAX(D73,1)</f>
         <v>8</v>
       </c>
       <c r="G73" s="0" t="str">
@@ -1715,13 +1719,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="0" t="n">
-        <f aca="false">IF(C74="bigint", 8, IF(C74="varchar", 1, IF(C74="datetime", 8,IF(C74="bytea", 1, 0)))*MAX(D74,1))</f>
+        <f aca="false">IF(C74="bigint", 8, IF(C74="varchar", 1, IF(C74="datetime", 8,IF(C74="int",4, 0))))*MAX(D74,1)</f>
         <v>8</v>
       </c>
       <c r="G74" s="0" t="str">
@@ -1731,21 +1735,21 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E75" s="0" t="n">
         <f aca="false">SUM(E76:E83)</f>
         <v>206</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G75" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="G75" s="2" t="n">
         <f aca="false">IF(E75*F75=0, "", E75*F75)</f>
-        <v>309000</v>
+        <v>32960</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="0" t="n">
-        <f aca="false">IF(C76="bigint", 8, IF(C76="varchar", 1, IF(C76="datetime", 8,IF(C76="bytea", 1, 0)))*MAX(D76,1))</f>
+        <f aca="false">IF(C76="bigint", 8, IF(C76="varchar", 1, IF(C76="datetime", 8,IF(C76="int",4, 0))))*MAX(D76,1)</f>
         <v>8</v>
       </c>
       <c r="G76" s="0" t="str">
@@ -1772,7 +1776,7 @@
         <v>21</v>
       </c>
       <c r="E77" s="0" t="n">
-        <f aca="false">IF(C77="bigint", 8, IF(C77="varchar", 1, IF(C77="datetime", 8,IF(C77="bytea", 1, 0)))*MAX(D77,1))</f>
+        <f aca="false">IF(C77="bigint", 8, IF(C77="varchar", 1, IF(C77="datetime", 8,IF(C77="int",4, 0))))*MAX(D77,1)</f>
         <v>8</v>
       </c>
       <c r="G77" s="0" t="str">
@@ -1782,7 +1786,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>13</v>
@@ -1791,7 +1795,7 @@
         <v>150</v>
       </c>
       <c r="E78" s="0" t="n">
-        <f aca="false">IF(C78="bigint", 8, IF(C78="varchar", 1, IF(C78="datetime", 8,IF(C78="bytea", 1, 0)))*MAX(D78,1))</f>
+        <f aca="false">IF(C78="bigint", 8, IF(C78="varchar", 1, IF(C78="datetime", 8,IF(C78="int",4, 0))))*MAX(D78,1)</f>
         <v>150</v>
       </c>
       <c r="G78" s="0" t="str">
@@ -1801,13 +1805,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="0" t="n">
-        <f aca="false">IF(C79="bigint", 8, IF(C79="varchar", 1, IF(C79="datetime", 8,IF(C79="bytea", 1, 0)))*MAX(D79,1))</f>
+        <f aca="false">IF(C79="bigint", 8, IF(C79="varchar", 1, IF(C79="datetime", 8,IF(C79="int",4, 0))))*MAX(D79,1)</f>
         <v>8</v>
       </c>
       <c r="G79" s="0" t="str">
@@ -1817,13 +1821,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="0" t="n">
-        <f aca="false">IF(C80="bigint", 8, IF(C80="varchar", 1, IF(C80="datetime", 8,IF(C80="bytea", 1, 0)))*MAX(D80,1))</f>
+        <f aca="false">IF(C80="bigint", 8, IF(C80="varchar", 1, IF(C80="datetime", 8,IF(C80="int",4, 0))))*MAX(D80,1)</f>
         <v>8</v>
       </c>
       <c r="G80" s="0" t="str">
@@ -1833,13 +1837,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="0" t="n">
-        <f aca="false">IF(C81="bigint", 8, IF(C81="varchar", 1, IF(C81="datetime", 8,IF(C81="bytea", 1, 0)))*MAX(D81,1))</f>
+        <f aca="false">IF(C81="bigint", 8, IF(C81="varchar", 1, IF(C81="datetime", 8,IF(C81="int",4, 0))))*MAX(D81,1)</f>
         <v>8</v>
       </c>
       <c r="G81" s="0" t="str">
@@ -1849,13 +1853,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="0" t="n">
-        <f aca="false">IF(C82="bigint", 8, IF(C82="varchar", 1, IF(C82="datetime", 8,IF(C82="bytea", 1, 0)))*MAX(D82,1))</f>
+        <f aca="false">IF(C82="bigint", 8, IF(C82="varchar", 1, IF(C82="datetime", 8,IF(C82="int",4, 0))))*MAX(D82,1)</f>
         <v>8</v>
       </c>
       <c r="G82" s="0" t="str">
@@ -1865,13 +1869,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="0" t="n">
-        <f aca="false">IF(C83="bigint", 8, IF(C83="varchar", 1, IF(C83="datetime", 8,IF(C83="bytea", 1, 0)))*MAX(D83,1))</f>
+        <f aca="false">IF(C83="bigint", 8, IF(C83="varchar", 1, IF(C83="datetime", 8,IF(C83="int",4, 0))))*MAX(D83,1)</f>
         <v>8</v>
       </c>
       <c r="G83" s="0" t="str">
@@ -1881,21 +1885,21 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E84" s="0" t="n">
         <f aca="false">SUM(E85:E94)</f>
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G84" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="G84" s="2" t="n">
         <f aca="false">IF(E84*F84=0, "", E84*F84)</f>
-        <v>456000</v>
+        <v>61760</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="E85" s="0" t="n">
-        <f aca="false">IF(C85="bigint", 8, IF(C85="varchar", 1, IF(C85="datetime", 8,IF(C85="bytea", 1, 0)))*MAX(D85,1))</f>
+        <f aca="false">IF(C85="bigint", 8, IF(C85="varchar", 1, IF(C85="datetime", 8,IF(C85="int",4, 0))))*MAX(D85,1)</f>
         <v>8</v>
       </c>
       <c r="G85" s="0" t="str">
@@ -1916,13 +1920,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E86" s="0" t="n">
-        <f aca="false">IF(C86="bigint", 8, IF(C86="varchar", 1, IF(C86="datetime", 8,IF(C86="bytea", 1, 0)))*MAX(D86,1))</f>
+        <f aca="false">IF(C86="bigint", 8, IF(C86="varchar", 1, IF(C86="datetime", 8,IF(C86="int",4, 0))))*MAX(D86,1)</f>
         <v>8</v>
       </c>
       <c r="G86" s="0" t="str">
@@ -1932,13 +1936,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="0" t="n">
-        <f aca="false">IF(C87="bigint", 8, IF(C87="varchar", 1, IF(C87="datetime", 8,IF(C87="bytea", 1, 0)))*MAX(D87,1))</f>
+        <f aca="false">IF(C87="bigint", 8, IF(C87="varchar", 1, IF(C87="datetime", 8,IF(C87="int",4, 0))))*MAX(D87,1)</f>
         <v>8</v>
       </c>
       <c r="G87" s="0" t="str">
@@ -1948,13 +1952,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E88" s="0" t="n">
-        <f aca="false">IF(C88="bigint", 8, IF(C88="varchar", 1, IF(C88="datetime", 8,IF(C88="bytea", 1, 0)))*MAX(D88,1))</f>
+        <f aca="false">IF(C88="bigint", 8, IF(C88="varchar", 1, IF(C88="datetime", 8,IF(C88="int",4, 0))))*MAX(D88,1)</f>
         <v>8</v>
       </c>
       <c r="G88" s="0" t="str">
@@ -1964,13 +1968,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E89" s="0" t="n">
-        <f aca="false">IF(C89="bigint", 8, IF(C89="varchar", 1, IF(C89="datetime", 8,IF(C89="bytea", 1, 0)))*MAX(D89,1))</f>
+        <f aca="false">IF(C89="bigint", 8, IF(C89="varchar", 1, IF(C89="datetime", 8,IF(C89="int",4, 0))))*MAX(D89,1)</f>
         <v>8</v>
       </c>
       <c r="G89" s="0" t="str">
@@ -1980,13 +1984,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E90" s="0" t="n">
-        <f aca="false">IF(C90="bigint", 8, IF(C90="varchar", 1, IF(C90="datetime", 8,IF(C90="bytea", 1, 0)))*MAX(D90,1))</f>
+        <f aca="false">IF(C90="bigint", 8, IF(C90="varchar", 1, IF(C90="datetime", 8,IF(C90="int",4, 0))))*MAX(D90,1)</f>
         <v>8</v>
       </c>
       <c r="G90" s="0" t="str">
@@ -1996,13 +2000,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E91" s="0" t="n">
-        <f aca="false">IF(C91="bigint", 8, IF(C91="varchar", 1, IF(C91="datetime", 8,IF(C91="bytea", 1, 0)))*MAX(D91,1))</f>
+        <f aca="false">IF(C91="bigint", 8, IF(C91="varchar", 1, IF(C91="datetime", 8,IF(C91="int",4, 0))))*MAX(D91,1)</f>
         <v>8</v>
       </c>
       <c r="G91" s="0" t="str">
@@ -2012,7 +2016,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>13</v>
@@ -2021,7 +2025,7 @@
         <v>150</v>
       </c>
       <c r="E92" s="0" t="n">
-        <f aca="false">IF(C92="bigint", 8, IF(C92="varchar", 1, IF(C92="datetime", 8,IF(C92="bytea", 1, 0)))*MAX(D92,1))</f>
+        <f aca="false">IF(C92="bigint", 8, IF(C92="varchar", 1, IF(C92="datetime", 8,IF(C92="int",4, 0))))*MAX(D92,1)</f>
         <v>150</v>
       </c>
       <c r="G92" s="0" t="str">
@@ -2031,17 +2035,17 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E93" s="0" t="n">
-        <f aca="false">IF(C93="bigint", 8, IF(C93="varchar", 1, IF(C93="datetime", 8,IF(C93="bytea", 1, 0)))*MAX(D93,1))</f>
-        <v>200</v>
+        <f aca="false">IF(C93="bigint", 8, IF(C93="varchar", 1, IF(C93="datetime", 8,IF(C93="int",4, 0))))*MAX(D93,1)</f>
+        <v>150</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">IF(E93*F93=0, "", E93*F93)</f>
@@ -2050,17 +2054,17 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E94" s="0" t="n">
-        <f aca="false">IF(C94="bigint", 8, IF(C94="varchar", 1, IF(C94="datetime", 8,IF(C94="bytea", 1, 0)))*MAX(D94,1))</f>
-        <v>50</v>
+        <f aca="false">IF(C94="bigint", 8, IF(C94="varchar", 1, IF(C94="datetime", 8,IF(C94="int",4, 0))))*MAX(D94,1)</f>
+        <v>30</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">IF(E94*F94=0, "", E94*F94)</f>
@@ -2069,16 +2073,16 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F95" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G95" s="0" t="n">
         <f aca="false">SUM(G2:G94)</f>
-        <v>20389400</v>
+        <v>530400</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F96" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>232</v>
@@ -2086,7 +2090,7 @@
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F97" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>53</v>
@@ -2094,11 +2098,11 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F98" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G98" s="0" t="n">
         <f aca="false">G95/(G96*G97)</f>
-        <v>1658.21405335068</v>
+        <v>43.1359791802212</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,7 +2202,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1113" type="list">
-      <formula1>"varchar,bigint,datetime,bytea"</formula1>
+      <formula1>"varchar,bigint,datetime,bytea,int"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
